--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100"/>
   </bookViews>
@@ -17,9 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
-  <si>
-    <t>測站名稱：麥寮環境監測中心</t>
-  </si>
   <si>
     <t>測站：EPA-環保署二林站 / FPG-大城站</t>
   </si>
@@ -120,16 +122,20 @@
     <t>PM10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>測站名稱：台積電監測車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="##0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,19 +336,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -359,36 +383,36 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -410,6 +434,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -417,6 +442,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -431,6 +457,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -438,9 +465,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>風向 FPG</c:v>
+                  <c:v>風向</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -454,6 +484,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D460-430A-A53D-CD0384A556C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -462,9 +498,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$7:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>風向 EPA</c:v>
+                  <c:v>風向</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -478,8 +517,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D460-430A-A53D-CD0384A556C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="70992640"/>
         <c:axId val="70995328"/>
       </c:lineChart>
@@ -488,6 +542,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -505,6 +560,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -513,12 +569,15 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="70995328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="70995328"/>
@@ -527,6 +586,7 @@
           <c:max val="360"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -545,6 +605,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -553,6 +614,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="70992640"/>
         <c:crosses val="autoZero"/>
@@ -572,9 +635,11 @@
           <c:h val="5.106382978723404E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -585,8 +650,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -612,6 +687,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -619,6 +695,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -633,6 +710,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -640,9 +718,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$10:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>風速 FPG</c:v>
+                  <c:v>風速</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -656,6 +737,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BD3-4594-90C4-D552B0E57019}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -664,9 +751,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$11:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>風速 EPA</c:v>
+                  <c:v>風速</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -680,8 +770,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BD3-4594-90C4-D552B0E57019}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="71024640"/>
         <c:axId val="71026944"/>
       </c:lineChart>
@@ -690,6 +795,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -707,6 +813,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -715,18 +822,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71026944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="71026944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -745,6 +856,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -753,6 +865,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71024640"/>
         <c:crosses val="autoZero"/>
@@ -771,9 +885,11 @@
           <c:h val="5.106382978723404E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -784,8 +900,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -807,6 +933,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -814,6 +941,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -828,6 +956,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -835,9 +964,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$12:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>二氧化硫 FPG</c:v>
+                  <c:v>二氧化硫</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -851,6 +983,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E9A-43CD-AC33-BE4658093DE4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -859,9 +997,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$13:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>二氧化硫 EPA</c:v>
+                  <c:v>二氧化硫</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -875,8 +1016,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E9A-43CD-AC33-BE4658093DE4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="71084672"/>
         <c:axId val="71095424"/>
       </c:lineChart>
@@ -885,6 +1041,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -902,6 +1059,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -910,18 +1068,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71095424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="71095424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -940,6 +1102,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -948,6 +1111,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71084672"/>
         <c:crosses val="autoZero"/>
@@ -966,9 +1131,11 @@
           <c:h val="5.106382978723404E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -979,8 +1146,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1002,6 +1179,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1009,6 +1187,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1023,6 +1202,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1030,9 +1210,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$14:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>二氧化氮 FPG</c:v>
+                  <c:v>二氧化氮</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1046,6 +1229,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-961A-4C9B-BEAE-2B31019DF4A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1054,9 +1243,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$15:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>二氧化氮 EPA</c:v>
+                  <c:v>二氧化氮</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1070,8 +1262,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-961A-4C9B-BEAE-2B31019DF4A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="71788032"/>
         <c:axId val="71794688"/>
       </c:lineChart>
@@ -1080,6 +1287,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1097,6 +1305,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1105,18 +1314,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71794688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="71794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1135,6 +1348,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1143,6 +1357,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71788032"/>
         <c:crosses val="autoZero"/>
@@ -1161,9 +1377,11 @@
           <c:h val="5.1172761165671189E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1174,8 +1392,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1197,6 +1425,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1204,6 +1433,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1218,6 +1448,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1225,9 +1456,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$16:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>一氧化碳 FPG</c:v>
+                  <c:v>一氧化碳</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1241,6 +1475,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEB7-447F-9A17-69F63522CC94}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1249,9 +1489,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$17:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>一氧化碳 EPA</c:v>
+                  <c:v>一氧化碳</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,8 +1508,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEB7-447F-9A17-69F63522CC94}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="71811456"/>
         <c:axId val="71813760"/>
       </c:lineChart>
@@ -1275,6 +1533,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1292,6 +1551,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1300,18 +1560,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71813760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="71813760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1330,6 +1594,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1338,6 +1603,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="71811456"/>
         <c:crosses val="autoZero"/>
@@ -1356,9 +1623,11 @@
           <c:h val="5.0847510228571723E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1369,8 +1638,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1411,6 +1690,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1418,6 +1698,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1432,6 +1713,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1439,9 +1721,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$18:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>臭氧 FPG</c:v>
+                  <c:v>臭氧</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1455,6 +1740,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2845-484C-B6B8-BF17507C472F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1463,9 +1754,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$19:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>臭氧 EPA</c:v>
+                  <c:v>臭氧</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1479,8 +1773,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2845-484C-B6B8-BF17507C472F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="72158208"/>
         <c:axId val="72164864"/>
       </c:lineChart>
@@ -1489,6 +1798,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1506,6 +1816,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1514,18 +1825,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72164864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="72164864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1544,6 +1859,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1552,6 +1868,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72158208"/>
         <c:crosses val="autoZero"/>
@@ -1570,9 +1888,11 @@
           <c:h val="5.0847510228571723E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1583,8 +1903,18 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1625,6 +1955,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1632,6 +1963,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1646,6 +1978,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1653,9 +1986,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$20:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>PM10 FPG</c:v>
+                  <c:v>PM10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1669,6 +2005,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-991A-40C9-9740-D678414E8DD0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1677,9 +2019,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$21:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>PM10 EPA</c:v>
+                  <c:v>PM10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1693,8 +2038,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-991A-40C9-9740-D678414E8DD0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="72189824"/>
         <c:axId val="72212864"/>
       </c:lineChart>
@@ -1703,6 +2063,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1720,6 +2081,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1728,18 +2090,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72212864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="72212864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1758,6 +2124,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1766,6 +2133,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72189824"/>
         <c:crosses val="autoZero"/>
@@ -1784,9 +2153,11 @@
           <c:h val="5.1172761165671189E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1797,8 +2168,18 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1820,6 +2201,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1827,6 +2209,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1841,6 +2224,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1848,9 +2232,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$22:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>碳氫化合物 FPG</c:v>
+                  <c:v>碳氫化合物</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1864,6 +2251,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-859D-4483-9DED-BE5F2859B92E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1872,9 +2265,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$23:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>碳氫化合物 EPA</c:v>
+                  <c:v>碳氫化合物</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1888,8 +2284,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-859D-4483-9DED-BE5F2859B92E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="72258304"/>
         <c:axId val="72260608"/>
       </c:lineChart>
@@ -1898,6 +2309,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1915,6 +2327,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1923,18 +2336,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72260608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="72260608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1953,6 +2370,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1961,6 +2379,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72258304"/>
         <c:crosses val="autoZero"/>
@@ -1979,9 +2399,11 @@
           <c:h val="5.1172761165671189E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1992,8 +2414,18 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2015,6 +2447,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2022,6 +2455,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2036,6 +2470,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2043,9 +2478,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$24:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>非甲烷 FPG</c:v>
+                  <c:v>非甲烷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2059,6 +2497,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ADB-4C69-9B10-7AAFDF820643}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2067,9 +2511,12 @@
             <c:strRef>
               <c:f>EPA測站比較表!$A$25:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>非甲烷 EPA</c:v>
+                  <c:v>非甲烷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2083,8 +2530,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3ADB-4C69-9B10-7AAFDF820643}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="73337856"/>
         <c:axId val="73344512"/>
       </c:lineChart>
@@ -2093,6 +2555,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2110,6 +2573,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -2118,18 +2582,22 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="73344512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="73344512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2148,6 +2616,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -2156,6 +2625,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="73337856"/>
         <c:crosses val="autoZero"/>
@@ -2174,9 +2645,11 @@
           <c:h val="5.095551966295047E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2480,7 +2953,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2522,7 +2995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2554,9 +3027,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2588,6 +3079,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2763,112 +3272,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+      <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
     <col min="3" max="29" width="6.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-    </row>
-    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="34" t="s">
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+    </row>
+    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+    </row>
+    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-    </row>
-    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="M3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
@@ -2880,140 +3389,140 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="19"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-    </row>
-    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+    </row>
+    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="23">
-        <v>0</v>
+      <c r="F4" s="25">
+        <v>3</v>
       </c>
-      <c r="D4" s="23">
-        <v>1</v>
+      <c r="G4" s="25">
+        <v>4</v>
       </c>
-      <c r="E4" s="23">
+      <c r="H4" s="25">
+        <v>5</v>
+      </c>
+      <c r="I4" s="25">
+        <v>6</v>
+      </c>
+      <c r="J4" s="25">
+        <v>7</v>
+      </c>
+      <c r="K4" s="25">
+        <v>8</v>
+      </c>
+      <c r="L4" s="25">
+        <v>9</v>
+      </c>
+      <c r="M4" s="25">
+        <v>10</v>
+      </c>
+      <c r="N4" s="25">
+        <v>11</v>
+      </c>
+      <c r="O4" s="25">
+        <v>12</v>
+      </c>
+      <c r="P4" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>14</v>
+      </c>
+      <c r="R4" s="25">
+        <v>15</v>
+      </c>
+      <c r="S4" s="25">
+        <v>16</v>
+      </c>
+      <c r="T4" s="25">
+        <v>17</v>
+      </c>
+      <c r="U4" s="25">
+        <v>18</v>
+      </c>
+      <c r="V4" s="25">
+        <v>19</v>
+      </c>
+      <c r="W4" s="25">
+        <v>20</v>
+      </c>
+      <c r="X4" s="25">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="23">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="23">
-        <v>4</v>
-      </c>
-      <c r="H4" s="23">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="25"/>
+    </row>
+    <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="23">
+      <c r="B6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="J4" s="23">
-        <v>7</v>
-      </c>
-      <c r="K4" s="23">
-        <v>8</v>
-      </c>
-      <c r="L4" s="23">
-        <v>9</v>
-      </c>
-      <c r="M4" s="23">
-        <v>10</v>
-      </c>
-      <c r="N4" s="23">
-        <v>11</v>
-      </c>
-      <c r="O4" s="23">
-        <v>12</v>
-      </c>
-      <c r="P4" s="23">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>14</v>
-      </c>
-      <c r="R4" s="23">
-        <v>15</v>
-      </c>
-      <c r="S4" s="23">
-        <v>16</v>
-      </c>
-      <c r="T4" s="23">
-        <v>17</v>
-      </c>
-      <c r="U4" s="23">
-        <v>18</v>
-      </c>
-      <c r="V4" s="23">
-        <v>19</v>
-      </c>
-      <c r="W4" s="23">
-        <v>20</v>
-      </c>
-      <c r="X4" s="23">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="23">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>23</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="23"/>
-    </row>
-    <row r="6" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3043,10 +3552,10 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3076,12 +3585,12 @@
       <c r="AB7" s="17"/>
       <c r="AC7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>27</v>
+    <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3111,10 +3620,10 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3144,12 +3653,12 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
     </row>
-    <row r="10" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>22</v>
+    <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3179,10 +3688,10 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3212,12 +3721,12 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
     </row>
-    <row r="12" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>23</v>
+    <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3247,10 +3756,10 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
     </row>
-    <row r="13" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3280,12 +3789,12 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
     </row>
-    <row r="14" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>9</v>
+    <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3315,10 +3824,10 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3348,12 +3857,12 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>10</v>
+    <row r="16" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3383,10 +3892,10 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
     </row>
-    <row r="17" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3416,12 +3925,12 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="18"/>
     </row>
-    <row r="18" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>28</v>
+    <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3451,10 +3960,10 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
     </row>
-    <row r="19" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3484,12 +3993,12 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
     </row>
-    <row r="20" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>29</v>
+    <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3519,10 +4028,10 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
     </row>
-    <row r="21" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3552,12 +4061,12 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
     </row>
-    <row r="22" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>11</v>
+    <row r="22" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3587,10 +4096,10 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
     </row>
-    <row r="23" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3620,12 +4129,12 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
     </row>
-    <row r="24" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>12</v>
+    <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3655,10 +4164,10 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="18"/>
     </row>
-    <row r="25" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3688,319 +4197,319 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="18"/>
     </row>
-    <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>13</v>
+    <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>12</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-    </row>
-    <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-    </row>
-    <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-    </row>
-    <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-    </row>
-    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-    </row>
-    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-    </row>
-    <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-    </row>
-    <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-    </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-    </row>
-    <row r="37" spans="1:29">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+    </row>
+    <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+    </row>
+    <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+    </row>
+    <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+    </row>
+    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+    </row>
+    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+    </row>
+    <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+    </row>
+    <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="2"/>
       <c r="C38" s="8"/>
@@ -4031,7 +4540,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="2"/>
       <c r="C39" s="8"/>
@@ -4062,7 +4571,7 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
       <c r="C40" s="8"/>
@@ -4093,7 +4602,7 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="2"/>
       <c r="C41" s="8"/>
@@ -4124,7 +4633,7 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="2"/>
       <c r="C42" s="8"/>
@@ -4155,7 +4664,7 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="2"/>
       <c r="C43" s="8"/>
@@ -4186,7 +4695,7 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
@@ -4217,7 +4726,7 @@
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
       <c r="C45" s="8"/>
@@ -4248,7 +4757,7 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="2"/>
       <c r="C46" s="8"/>
@@ -4279,7 +4788,7 @@
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
@@ -4310,7 +4819,7 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="2"/>
       <c r="C48" s="8"/>
@@ -4341,7 +4850,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="2"/>
       <c r="C49" s="8"/>
@@ -4372,7 +4881,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="2"/>
       <c r="C50" s="8"/>
@@ -4403,7 +4912,7 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="8"/>
@@ -4434,7 +4943,7 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="2"/>
       <c r="C52" s="8"/>
@@ -4465,7 +4974,7 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="2"/>
       <c r="C53" s="8"/>
@@ -4496,7 +5005,7 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -4527,7 +5036,7 @@
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
@@ -4558,7 +5067,7 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
@@ -4589,7 +5098,7 @@
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
@@ -4620,7 +5129,7 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
@@ -4651,7 +5160,7 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
@@ -4682,7 +5191,7 @@
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="2"/>
       <c r="C60" s="8"/>
@@ -4713,7 +5222,7 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="2"/>
       <c r="C61" s="8"/>
@@ -4744,7 +5253,7 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="2"/>
       <c r="C62" s="8"/>
@@ -4775,7 +5284,7 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="2"/>
       <c r="C63" s="8"/>
@@ -4806,7 +5315,7 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="2"/>
       <c r="C64" s="8"/>
@@ -4837,7 +5346,7 @@
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="2"/>
       <c r="C65" s="8"/>
@@ -4868,7 +5377,7 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="2"/>
       <c r="C66" s="8"/>
@@ -4899,7 +5408,7 @@
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="2"/>
       <c r="C67" s="8"/>
@@ -4930,7 +5439,7 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="2"/>
       <c r="C68" s="8"/>
@@ -4961,7 +5470,7 @@
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="2"/>
       <c r="C69" s="8"/>
@@ -4992,7 +5501,7 @@
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="2"/>
       <c r="C70" s="8"/>
@@ -5023,7 +5532,7 @@
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="2"/>
       <c r="C71" s="8"/>
@@ -5054,7 +5563,7 @@
       <c r="AB71" s="8"/>
       <c r="AC71" s="8"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="2"/>
       <c r="C72" s="8"/>
@@ -5085,7 +5594,7 @@
       <c r="AB72" s="8"/>
       <c r="AC72" s="8"/>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="2"/>
       <c r="C73" s="8"/>
@@ -5116,7 +5625,7 @@
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="2"/>
       <c r="C74" s="8"/>
@@ -5147,7 +5656,7 @@
       <c r="AB74" s="8"/>
       <c r="AC74" s="8"/>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="2"/>
       <c r="C75" s="8"/>
@@ -5178,7 +5687,7 @@
       <c r="AB75" s="8"/>
       <c r="AC75" s="8"/>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="2"/>
       <c r="C76" s="8"/>
@@ -5209,7 +5718,7 @@
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="2"/>
       <c r="C77" s="8"/>
@@ -5240,7 +5749,7 @@
       <c r="AB77" s="8"/>
       <c r="AC77" s="8"/>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="2"/>
       <c r="C78" s="8"/>
@@ -5271,7 +5780,7 @@
       <c r="AB78" s="8"/>
       <c r="AC78" s="8"/>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="2"/>
       <c r="C79" s="8"/>
@@ -5302,7 +5811,7 @@
       <c r="AB79" s="8"/>
       <c r="AC79" s="8"/>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="2"/>
       <c r="C80" s="8"/>
@@ -5333,7 +5842,7 @@
       <c r="AB80" s="8"/>
       <c r="AC80" s="8"/>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="2"/>
       <c r="C81" s="8"/>
@@ -5364,7 +5873,7 @@
       <c r="AB81" s="8"/>
       <c r="AC81" s="8"/>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="2"/>
       <c r="C82" s="8"/>
@@ -5395,69 +5904,69 @@
       <c r="AB82" s="8"/>
       <c r="AC82" s="8"/>
     </row>
-    <row r="83" spans="1:29">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="20"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="20"/>
-      <c r="W83" s="20"/>
-      <c r="X83" s="20"/>
-      <c r="Y83" s="20"/>
-      <c r="Z83" s="20"/>
-      <c r="AA83" s="20"/>
-      <c r="AB83" s="20"/>
-      <c r="AC83" s="20"/>
-    </row>
-    <row r="84" spans="1:29">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-    </row>
-    <row r="85" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="26"/>
+      <c r="U83" s="26"/>
+      <c r="V83" s="26"/>
+      <c r="W83" s="26"/>
+      <c r="X83" s="26"/>
+      <c r="Y83" s="26"/>
+      <c r="Z83" s="26"/>
+      <c r="AA83" s="26"/>
+      <c r="AB83" s="26"/>
+      <c r="AC83" s="26"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="26"/>
+      <c r="V84" s="26"/>
+      <c r="W84" s="26"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="26"/>
+      <c r="Z84" s="26"/>
+      <c r="AA84" s="26"/>
+      <c r="AB84" s="26"/>
+      <c r="AC84" s="26"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="2"/>
       <c r="C85" s="8"/>
@@ -5488,7 +5997,7 @@
       <c r="AB85" s="8"/>
       <c r="AC85" s="8"/>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="2"/>
       <c r="C86" s="8"/>
@@ -5519,7 +6028,7 @@
       <c r="AB86" s="8"/>
       <c r="AC86" s="8"/>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="2"/>
       <c r="C87" s="8"/>
@@ -5550,7 +6059,7 @@
       <c r="AB87" s="8"/>
       <c r="AC87" s="8"/>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8"/>
@@ -5581,7 +6090,7 @@
       <c r="AB88" s="8"/>
       <c r="AC88" s="8"/>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="2"/>
       <c r="C89" s="8"/>
@@ -5612,7 +6121,7 @@
       <c r="AB89" s="8"/>
       <c r="AC89" s="8"/>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="2"/>
       <c r="C90" s="8"/>
@@ -5643,7 +6152,7 @@
       <c r="AB90" s="8"/>
       <c r="AC90" s="8"/>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="2"/>
       <c r="C91" s="8"/>
@@ -5674,7 +6183,7 @@
       <c r="AB91" s="8"/>
       <c r="AC91" s="8"/>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="2"/>
       <c r="C92" s="8"/>
@@ -5705,7 +6214,7 @@
       <c r="AB92" s="8"/>
       <c r="AC92" s="8"/>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="2"/>
       <c r="C93" s="8"/>
@@ -5736,7 +6245,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="2"/>
       <c r="C94" s="8"/>
@@ -5767,7 +6276,7 @@
       <c r="AB94" s="8"/>
       <c r="AC94" s="8"/>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="2"/>
       <c r="C95" s="8"/>
@@ -5798,7 +6307,7 @@
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="2"/>
       <c r="C96" s="8"/>
@@ -5829,7 +6338,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="2"/>
       <c r="C97" s="8"/>
@@ -5860,7 +6369,7 @@
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="2"/>
       <c r="C98" s="8"/>
@@ -5891,7 +6400,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="2"/>
       <c r="C99" s="8"/>
@@ -5922,7 +6431,7 @@
       <c r="AB99" s="8"/>
       <c r="AC99" s="8"/>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8"/>
@@ -5953,7 +6462,7 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="8"/>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="2"/>
       <c r="C101" s="8"/>
@@ -5984,7 +6493,7 @@
       <c r="AB101" s="8"/>
       <c r="AC101" s="8"/>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="2"/>
       <c r="C102" s="8"/>
@@ -6015,7 +6524,7 @@
       <c r="AB102" s="8"/>
       <c r="AC102" s="8"/>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="2"/>
       <c r="C103" s="8"/>
@@ -6046,7 +6555,7 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="2"/>
       <c r="C104" s="8"/>
@@ -6077,7 +6586,7 @@
       <c r="AB104" s="8"/>
       <c r="AC104" s="8"/>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="2"/>
       <c r="C105" s="8"/>
@@ -6108,7 +6617,7 @@
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="2"/>
       <c r="C106" s="8"/>
@@ -6139,7 +6648,7 @@
       <c r="AB106" s="8"/>
       <c r="AC106" s="8"/>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="2"/>
       <c r="C107" s="8"/>
@@ -6170,7 +6679,7 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="8"/>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="2"/>
       <c r="C108" s="8"/>
@@ -6201,7 +6710,7 @@
       <c r="AB108" s="8"/>
       <c r="AC108" s="8"/>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="2"/>
       <c r="C109" s="8"/>
@@ -6232,7 +6741,7 @@
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="2"/>
       <c r="C110" s="8"/>
@@ -6263,7 +6772,7 @@
       <c r="AB110" s="8"/>
       <c r="AC110" s="8"/>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="2"/>
       <c r="C111" s="8"/>
@@ -6294,7 +6803,7 @@
       <c r="AB111" s="8"/>
       <c r="AC111" s="8"/>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="2"/>
       <c r="C112" s="8"/>
@@ -6325,7 +6834,7 @@
       <c r="AB112" s="8"/>
       <c r="AC112" s="8"/>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="2"/>
       <c r="C113" s="8"/>
@@ -6356,7 +6865,7 @@
       <c r="AB113" s="8"/>
       <c r="AC113" s="8"/>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="2"/>
       <c r="C114" s="8"/>
@@ -6387,7 +6896,7 @@
       <c r="AB114" s="8"/>
       <c r="AC114" s="8"/>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="2"/>
       <c r="C115" s="8"/>
@@ -6418,7 +6927,7 @@
       <c r="AB115" s="8"/>
       <c r="AC115" s="8"/>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="2"/>
       <c r="C116" s="8"/>
@@ -6449,7 +6958,7 @@
       <c r="AB116" s="8"/>
       <c r="AC116" s="8"/>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="2"/>
       <c r="C117" s="8"/>
@@ -6480,7 +6989,7 @@
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="2"/>
       <c r="C118" s="8"/>
@@ -6511,7 +7020,7 @@
       <c r="AB118" s="8"/>
       <c r="AC118" s="8"/>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="2"/>
       <c r="C119" s="8"/>
@@ -6542,7 +7051,7 @@
       <c r="AB119" s="8"/>
       <c r="AC119" s="8"/>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="2"/>
       <c r="C120" s="8"/>
@@ -6573,7 +7082,7 @@
       <c r="AB120" s="8"/>
       <c r="AC120" s="8"/>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="2"/>
       <c r="C121" s="8"/>
@@ -6604,7 +7113,7 @@
       <c r="AB121" s="8"/>
       <c r="AC121" s="8"/>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="2"/>
       <c r="C122" s="8"/>
@@ -6635,7 +7144,7 @@
       <c r="AB122" s="8"/>
       <c r="AC122" s="8"/>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="2"/>
       <c r="C123" s="8"/>
@@ -6666,7 +7175,7 @@
       <c r="AB123" s="8"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="2"/>
       <c r="C124" s="8"/>
@@ -6697,7 +7206,7 @@
       <c r="AB124" s="8"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="2"/>
       <c r="C125" s="8"/>
@@ -6728,7 +7237,7 @@
       <c r="AB125" s="8"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="2"/>
       <c r="C126" s="8"/>
@@ -6759,7 +7268,7 @@
       <c r="AB126" s="8"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="2"/>
       <c r="C127" s="8"/>
@@ -6790,7 +7299,7 @@
       <c r="AB127" s="8"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="2"/>
       <c r="C128" s="8"/>
@@ -6821,7 +7330,7 @@
       <c r="AB128" s="8"/>
       <c r="AC128" s="8"/>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="2"/>
       <c r="C129" s="8"/>
@@ -6852,7 +7361,7 @@
       <c r="AB129" s="8"/>
       <c r="AC129" s="8"/>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="2"/>
       <c r="C130" s="8"/>
@@ -6883,21 +7392,21 @@
       <c r="AB130" s="8"/>
       <c r="AC130" s="8"/>
     </row>
-    <row r="131" spans="1:29">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
-      <c r="N131" s="20"/>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
@@ -6914,21 +7423,21 @@
       <c r="AB131" s="8"/>
       <c r="AC131" s="8"/>
     </row>
-    <row r="132" spans="1:29">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
-      <c r="N132" s="20"/>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="26"/>
+      <c r="M132" s="26"/>
+      <c r="N132" s="26"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
@@ -6947,46 +7456,7 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="A37:X37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A131:K131"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="L131:N131"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="Y36:AC36"/>
     <mergeCell ref="Y84:AC84"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A14:A15"/>
@@ -7003,7 +7473,46 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7014,12 +7523,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7027,12 +7536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_template/epa_compare.xlsx
+++ b/report_template/epa_compare.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>測站：EPA-環保署二林站 / FPG-大城站</t>
   </si>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>PM10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測站名稱：台積電監測車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,37 +332,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +354,30 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2676,7 +2672,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1025" name="圖表 1"/>
+        <xdr:cNvPr id="1025" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2708,7 +2710,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1026" name="圖表 2"/>
+        <xdr:cNvPr id="1026" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2740,7 +2748,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1027" name="圖表 3"/>
+        <xdr:cNvPr id="1027" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2772,7 +2786,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1028" name="圖表 4"/>
+        <xdr:cNvPr id="1028" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2804,7 +2824,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1029" name="圖表 5"/>
+        <xdr:cNvPr id="1029" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2836,7 +2862,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1030" name="圖表 6"/>
+        <xdr:cNvPr id="1030" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2868,7 +2900,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1031" name="圖表 7"/>
+        <xdr:cNvPr id="1031" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2900,7 +2938,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1032" name="圖表 8"/>
+        <xdr:cNvPr id="1032" name="圖表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2932,7 +2976,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1033" name="圖表 9"/>
+        <xdr:cNvPr id="1033" name="圖表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3287,80 +3337,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="10" t="s">
         <v>25</v>
       </c>
@@ -3389,96 +3437,96 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="19"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="21">
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>2</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <v>3</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="21">
         <v>4</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="21">
         <v>5</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="21">
         <v>6</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="21">
         <v>7</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="21">
         <v>8</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="21">
         <v>9</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="21">
         <v>10</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="21">
         <v>11</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="21">
         <v>12</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="21">
         <v>13</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="21">
         <v>14</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="21">
         <v>15</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="21">
         <v>16</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="21">
         <v>17</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="21">
         <v>18</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="21">
         <v>19</v>
       </c>
-      <c r="W4" s="25">
+      <c r="W4" s="21">
         <v>20</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4" s="21">
         <v>21</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="21">
         <v>22</v>
       </c>
-      <c r="Z4" s="25">
+      <c r="Z4" s="21">
         <v>23</v>
       </c>
-      <c r="AA4" s="29" t="s">
+      <c r="AA4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3489,36 +3537,36 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3553,7 +3601,7 @@
       <c r="AC6" s="18"/>
     </row>
     <row r="7" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
@@ -3586,7 +3634,7 @@
       <c r="AC7" s="18"/>
     </row>
     <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3621,7 +3669,7 @@
       <c r="AC8" s="18"/>
     </row>
     <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -3654,7 +3702,7 @@
       <c r="AC9" s="18"/>
     </row>
     <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3689,7 +3737,7 @@
       <c r="AC10" s="18"/>
     </row>
     <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
@@ -3722,7 +3770,7 @@
       <c r="AC11" s="18"/>
     </row>
     <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3757,7 +3805,7 @@
       <c r="AC12" s="18"/>
     </row>
     <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3790,7 +3838,7 @@
       <c r="AC13" s="18"/>
     </row>
     <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3825,7 +3873,7 @@
       <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
@@ -3858,7 +3906,7 @@
       <c r="AC15" s="18"/>
     </row>
     <row r="16" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3893,7 +3941,7 @@
       <c r="AC16" s="18"/>
     </row>
     <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -3926,7 +3974,7 @@
       <c r="AC17" s="18"/>
     </row>
     <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3961,7 +4009,7 @@
       <c r="AC18" s="18"/>
     </row>
     <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3994,7 +4042,7 @@
       <c r="AC19" s="18"/>
     </row>
     <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4029,7 +4077,7 @@
       <c r="AC20" s="18"/>
     </row>
     <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4062,7 +4110,7 @@
       <c r="AC21" s="18"/>
     </row>
     <row r="22" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4097,7 +4145,7 @@
       <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4178,7 @@
       <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4165,7 +4213,7 @@
       <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4198,316 +4246,316 @@
       <c r="AC25" s="18"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
     </row>
     <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
     </row>
     <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
     </row>
     <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
     </row>
     <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
@@ -5905,66 +5953,66 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
-      <c r="U83" s="26"/>
-      <c r="V83" s="26"/>
-      <c r="W83" s="26"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="26"/>
-      <c r="AA83" s="26"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="26"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
-      <c r="U84" s="26"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="26"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="26"/>
-      <c r="Z84" s="26"/>
-      <c r="AA84" s="26"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="26"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -7393,20 +7441,20 @@
       <c r="AC130" s="8"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="26"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
@@ -7424,20 +7472,20 @@
       <c r="AC131" s="8"/>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
-      <c r="K132" s="26"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="26"/>
-      <c r="N132" s="26"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
@@ -7456,6 +7504,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="Y36:AC36"/>
     <mergeCell ref="Y84:AC84"/>
     <mergeCell ref="N4:N5"/>
@@ -7472,47 +7561,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="A37:X37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A131:K131"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="L131:N131"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
